--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1620.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1620.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.152254857142627</v>
+        <v>0.813602089881897</v>
       </c>
       <c r="B1">
-        <v>2.734582197466833</v>
+        <v>2.789194822311401</v>
       </c>
       <c r="C1">
-        <v>4.423488020086618</v>
+        <v>4.754696846008301</v>
       </c>
       <c r="D1">
-        <v>2.219773344200453</v>
+        <v>2.783067226409912</v>
       </c>
       <c r="E1">
-        <v>1.065196978187758</v>
+        <v>1.346285820007324</v>
       </c>
     </row>
   </sheetData>
